--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
   <si>
     <t>UserName</t>
   </si>
@@ -129,6 +129,45 @@
   </si>
   <si>
     <t>disneyTest838knp@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838jam@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838xfs@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838son@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838cti@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838qly@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838owb@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838mrc@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838wui@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838mqk@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838bfk@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838whr@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838rdh@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838lxm@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,7 +753,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
